--- a/Utils/event_info.xlsx
+++ b/Utils/event_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="15350" windowHeight="25000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">Sheet1!$B$2:$C$109</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="222">
   <si>
     <t>type</t>
   </si>
@@ -499,19 +512,22 @@
     <t>song</t>
   </si>
   <si>
-    <t>sing_mypractiseroom_zhankaifeeditem_show</t>
+    <t>(pass)sing_mypractiseroom_zhankaifeeditem_show</t>
   </si>
   <si>
     <t>我的练歌房展开feed流show</t>
   </si>
   <si>
-    <t>sing_mypractiseroom_zhankaifeedkapian_click</t>
+    <t>已下架</t>
+  </si>
+  <si>
+    <t>(pass)sing_mypractiseroom_zhankaifeedkapian_click</t>
   </si>
   <si>
     <t>我的练歌房展开feed流点击卡片</t>
   </si>
   <si>
-    <t>sing_mypractiseroom_zhankaifeedsingbutton_click</t>
+    <t>(pass)sing_mypractiseroom_zhankaifeedsingbutton_click</t>
   </si>
   <si>
     <t>我的练歌房展开feed流点击唱按钮</t>
@@ -959,7 +975,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,6 +1009,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +1395,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1397,16 +1419,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1415,89 +1437,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,6 +1572,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,13 +2142,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.9363636363636" style="3" customWidth="1"/>
     <col min="2" max="2" width="61.0636363636364" style="4" customWidth="1"/>
@@ -2371,10 +2402,10 @@
       <c r="A15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -2389,7 +2420,7 @@
       <c r="A16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2405,7 +2436,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:6">
       <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2421,7 +2452,7 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:6">
       <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2437,7 +2468,7 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:6">
       <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2453,7 +2484,7 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:6">
       <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2469,7 +2500,7 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:6">
       <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2485,7 +2516,7 @@
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:6">
       <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -2501,7 +2532,7 @@
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:6">
       <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2599,7 +2630,7 @@
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2615,7 +2646,7 @@
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:6">
       <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -2631,7 +2662,7 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:6">
       <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -2647,7 +2678,7 @@
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:6">
       <c r="A32" s="9"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2663,7 +2694,7 @@
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:6">
       <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -2679,7 +2710,7 @@
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:6">
       <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -2695,7 +2726,7 @@
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:6">
       <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2711,7 +2742,7 @@
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:6">
       <c r="A36" s="9"/>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -2727,7 +2758,7 @@
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:6">
       <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -2745,7 +2776,7 @@
       <c r="A38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2761,7 +2792,7 @@
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:6">
       <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -2777,7 +2808,7 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:6">
       <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2793,7 +2824,7 @@
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:6">
       <c r="A41" s="9"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -2809,7 +2840,7 @@
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:6">
       <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -2827,7 +2858,7 @@
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:6">
       <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2845,7 +2876,7 @@
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:6">
       <c r="A44" s="9"/>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -2863,7 +2894,7 @@
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:6">
       <c r="A45" s="9"/>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -2883,7 +2914,7 @@
       <c r="A46" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -2901,7 +2932,7 @@
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:6">
       <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -3023,7 +3054,7 @@
       <c r="A54" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -3039,7 +3070,7 @@
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:6">
       <c r="A55" s="9"/>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -3055,7 +3086,7 @@
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:6">
       <c r="A56" s="9"/>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -3072,26 +3103,26 @@
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A57" s="18"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="20" t="s">
+      <c r="D57" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:6">
       <c r="A58" s="9"/>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -3108,10 +3139,10 @@
       </c>
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="19" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -3126,8 +3157,8 @@
       </c>
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A60" s="18"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -3141,7 +3172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" ht="22.5" customHeight="1" spans="1:6">
+    <row r="61" ht="22.5" customHeight="1" spans="1:7">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -3158,14 +3189,17 @@
       <c r="F61" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" ht="22.5" customHeight="1" spans="1:6">
+      <c r="G61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1" spans="1:7">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>9</v>
@@ -3174,14 +3208,17 @@
       <c r="F62" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" ht="22.5" customHeight="1" spans="1:6">
+      <c r="G62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1" spans="1:7">
       <c r="A63" s="9"/>
       <c r="B63" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>9</v>
@@ -3190,14 +3227,17 @@
       <c r="F63" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G63" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:6">
       <c r="A64" s="9"/>
-      <c r="B64" s="10" t="s">
-        <v>141</v>
+      <c r="B64" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>9</v>
@@ -3209,11 +3249,11 @@
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:6">
       <c r="A65" s="9"/>
-      <c r="B65" s="10" t="s">
-        <v>143</v>
+      <c r="B65" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>9</v>
@@ -3225,11 +3265,11 @@
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:6">
       <c r="A66" s="9"/>
-      <c r="B66" s="10" t="s">
-        <v>145</v>
+      <c r="B66" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>9</v>
@@ -3242,10 +3282,10 @@
     <row r="67" ht="22.5" customHeight="1" spans="1:6">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>9</v>
@@ -3258,10 +3298,10 @@
     <row r="68" ht="22.5" customHeight="1" spans="1:6">
       <c r="A68" s="9"/>
       <c r="B68" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>9</v>
@@ -3274,10 +3314,10 @@
     <row r="69" ht="22.5" customHeight="1" spans="1:6">
       <c r="A69" s="9"/>
       <c r="B69" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>9</v>
@@ -3289,11 +3329,11 @@
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:6">
       <c r="A70" s="9"/>
-      <c r="B70" s="10" t="s">
-        <v>153</v>
+      <c r="B70" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>9</v>
@@ -3305,11 +3345,11 @@
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:6">
       <c r="A71" s="9"/>
-      <c r="B71" s="10" t="s">
-        <v>155</v>
+      <c r="B71" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>9</v>
@@ -3321,11 +3361,11 @@
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:6">
       <c r="A72" s="9"/>
-      <c r="B72" s="10" t="s">
-        <v>157</v>
+      <c r="B72" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>9</v>
@@ -3341,7 +3381,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>9</v>
@@ -3357,7 +3397,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>9</v>
@@ -3370,10 +3410,10 @@
     <row r="75" ht="22.5" customHeight="1" spans="1:6">
       <c r="A75" s="9"/>
       <c r="B75" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>9</v>
@@ -3386,10 +3426,10 @@
     <row r="76" ht="22.5" customHeight="1" spans="1:6">
       <c r="A76" s="9"/>
       <c r="B76" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>9</v>
@@ -3405,7 +3445,7 @@
         <v>27</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>9</v>
@@ -3421,7 +3461,7 @@
         <v>30</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>9</v>
@@ -3434,10 +3474,10 @@
     <row r="79" ht="22.5" customHeight="1" spans="1:6">
       <c r="A79" s="9"/>
       <c r="B79" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>9</v>
@@ -3450,10 +3490,10 @@
     <row r="80" ht="22.5" customHeight="1" spans="1:6">
       <c r="A80" s="9"/>
       <c r="B80" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>9</v>
@@ -3466,10 +3506,10 @@
     <row r="81" ht="22.5" customHeight="1" spans="1:6">
       <c r="A81" s="9"/>
       <c r="B81" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>9</v>
@@ -3482,10 +3522,10 @@
     <row r="82" ht="22.5" customHeight="1" spans="1:6">
       <c r="A82" s="9"/>
       <c r="B82" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>9</v>
@@ -3497,13 +3537,13 @@
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:6">
       <c r="A83" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>9</v>
@@ -3516,10 +3556,10 @@
     <row r="84" ht="22.5" customHeight="1" spans="1:6">
       <c r="A84" s="9"/>
       <c r="B84" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>9</v>
@@ -3532,10 +3572,10 @@
     <row r="85" ht="22.5" customHeight="1" spans="1:6">
       <c r="A85" s="9"/>
       <c r="B85" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>9</v>
@@ -3548,10 +3588,10 @@
     <row r="86" ht="22.5" customHeight="1" spans="1:6">
       <c r="A86" s="9"/>
       <c r="B86" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>9</v>
@@ -3564,10 +3604,10 @@
     <row r="87" ht="22.5" customHeight="1" spans="1:6">
       <c r="A87" s="9"/>
       <c r="B87" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>9</v>
@@ -3582,10 +3622,10 @@
     <row r="88" ht="22.5" customHeight="1" spans="1:6">
       <c r="A88" s="9"/>
       <c r="B88" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>9</v>
@@ -3598,10 +3638,10 @@
     <row r="89" ht="22.5" customHeight="1" spans="1:6">
       <c r="A89" s="9"/>
       <c r="B89" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>9</v>
@@ -3616,10 +3656,10 @@
     <row r="90" ht="22.5" customHeight="1" spans="1:6">
       <c r="A90" s="9"/>
       <c r="B90" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>9</v>
@@ -3632,10 +3672,10 @@
     <row r="91" ht="22.5" customHeight="1" spans="1:6">
       <c r="A91" s="9"/>
       <c r="B91" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>9</v>
@@ -3650,10 +3690,10 @@
     <row r="92" ht="22.5" customHeight="1" spans="1:6">
       <c r="A92" s="9"/>
       <c r="B92" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>9</v>
@@ -3666,10 +3706,10 @@
     <row r="93" ht="22.5" customHeight="1" spans="1:6">
       <c r="A93" s="9"/>
       <c r="B93" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>9</v>
@@ -3684,10 +3724,10 @@
     <row r="94" ht="22.5" customHeight="1" spans="1:6">
       <c r="A94" s="9"/>
       <c r="B94" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>9</v>
@@ -3700,10 +3740,10 @@
     <row r="95" ht="22.5" customHeight="1" spans="1:6">
       <c r="A95" s="9"/>
       <c r="B95" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>9</v>
@@ -3718,10 +3758,10 @@
     <row r="96" ht="22.5" customHeight="1" spans="1:6">
       <c r="A96" s="9"/>
       <c r="B96" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>9</v>
@@ -3736,10 +3776,10 @@
     <row r="97" ht="22.5" customHeight="1" spans="1:6">
       <c r="A97" s="9"/>
       <c r="B97" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>9</v>
@@ -3752,10 +3792,10 @@
     <row r="98" ht="39" customHeight="1" spans="1:6">
       <c r="A98" s="9"/>
       <c r="B98" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>9</v>
@@ -3768,10 +3808,10 @@
     <row r="99" ht="39" customHeight="1" spans="1:6">
       <c r="A99" s="9"/>
       <c r="B99" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>9</v>
@@ -3784,494 +3824,494 @@
     <row r="100" ht="22.5" customHeight="1" spans="1:6">
       <c r="A100" s="9"/>
       <c r="B100" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" ht="22.5" customHeight="1" spans="1:6">
       <c r="A101" s="9"/>
       <c r="B101" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" ht="22.5" customHeight="1" spans="1:6">
       <c r="A102" s="9"/>
       <c r="B102" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" ht="22.5" customHeight="1" spans="1:6">
       <c r="A103" s="9"/>
       <c r="B103" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" ht="22.5" customHeight="1" spans="1:6">
       <c r="A104" s="9"/>
       <c r="B104" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="21" t="s">
-        <v>212</v>
+      <c r="F104" s="24" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="105" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="22"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="22"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="22"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="22"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="22"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="22"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="22"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="22"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="22"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="22"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="22"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="22"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="22"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="22"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="22"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="22"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="22"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="22"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="22"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="22"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="22"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="22"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="22"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="22"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="22"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="22"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="A149" s="25"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="22"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="22"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="22"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
+      <c r="A154" s="25"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="22"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="A155" s="25"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
+      <c r="A157" s="25"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="22"/>
+      <c r="A158" s="25"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="22"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
+      <c r="A159" s="25"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="25"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Utils/event_info.xlsx
+++ b/Utils/event_info.xlsx
@@ -2144,8 +2144,8 @@
   <sheetPr/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:6">
       <c r="A73" s="9"/>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -3539,7 +3539,7 @@
       <c r="A83" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="19" t="s">
         <v>177</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -3555,7 +3555,7 @@
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:6">
       <c r="A84" s="9"/>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="19" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -3571,7 +3571,7 @@
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:6">
       <c r="A85" s="9"/>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -3603,7 +3603,7 @@
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:6">
       <c r="A87" s="9"/>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="19" t="s">
         <v>185</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -3621,7 +3621,7 @@
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:6">
       <c r="A88" s="9"/>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:6">
       <c r="A89" s="9"/>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:6">
       <c r="A90" s="9"/>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="19" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -3671,7 +3671,7 @@
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:6">
       <c r="A91" s="9"/>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="19" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -3689,7 +3689,7 @@
     </row>
     <row r="92" ht="22.5" customHeight="1" spans="1:6">
       <c r="A92" s="9"/>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="19" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -3705,7 +3705,7 @@
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:6">
       <c r="A93" s="9"/>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="19" t="s">
         <v>197</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -3723,7 +3723,7 @@
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:6">
       <c r="A94" s="9"/>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="19" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -3739,7 +3739,7 @@
     </row>
     <row r="95" ht="22.5" customHeight="1" spans="1:6">
       <c r="A95" s="9"/>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="19" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="96" ht="22.5" customHeight="1" spans="1:6">
       <c r="A96" s="9"/>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="19" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -3775,7 +3775,7 @@
     </row>
     <row r="97" ht="22.5" customHeight="1" spans="1:6">
       <c r="A97" s="9"/>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="19" t="s">
         <v>205</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -3791,7 +3791,7 @@
     </row>
     <row r="98" ht="39" customHeight="1" spans="1:6">
       <c r="A98" s="9"/>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="19" t="s">
         <v>207</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -3807,7 +3807,7 @@
     </row>
     <row r="99" ht="39" customHeight="1" spans="1:6">
       <c r="A99" s="9"/>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="19" t="s">
         <v>209</v>
       </c>
       <c r="C99" s="11" t="s">
